--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20,244.21</t>
+          <t>16,732.20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,17 +486,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>125.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17,688.21</t>
+          <t>14,630.01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>98.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10,287.04</t>
+          <t>8,368.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13,862.98</t>
+          <t>11,197.60</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35.85</t>
+          <t>63.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13,107.42</t>
+          <t>10,662.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>58.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14,540.26</t>
+          <t>12,850.24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>122.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24,239.45</t>
+          <t>19,108.30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>156.25</t>
+          <t>204.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -721,27 +721,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11,198.26</t>
+          <t>9,629.53</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>122.88</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7,729.16</t>
+          <t>5,911.93</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>64.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10,277.48</t>
+          <t>9,015.97</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>56.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9,459.24</t>
+          <t>8,037.23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>41.02</t>
+          <t>25.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15,395.17</t>
+          <t>12,559.06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17.16</t>
+          <t>110.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19,658.99</t>
+          <t>17,203.46</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>144.52</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -931,27 +931,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16,679.36</t>
+          <t>14,294.88</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>143.93</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9,310.68</t>
+          <t>8,177.73</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>87.59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>711.59</t>
+          <t>609.18</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10.24</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>932.05</t>
+          <t>829.14</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4,718.49</t>
+          <t>3,796.95</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>42.93</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1106,27 +1106,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>181.27</t>
+          <t>152.92</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1141,27 +1141,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,858.54</t>
+          <t>1,795.83</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1176,27 +1176,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>282.71</t>
+          <t>244.26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>628.80</t>
+          <t>584.66</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>231.02</t>
+          <t>227.79</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1281,27 +1281,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>80.01</t>
+          <t>105.77</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>116.13</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1326,17 +1326,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>139.71</t>
+          <t>127.82</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1361,17 +1361,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.86</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>65.42</t>
+          <t>71.39</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>63.81</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1431,17 +1431,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>401.50</t>
+          <t>296.99</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>165.93</t>
+          <t>136.80</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1526,27 +1526,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>284.73</t>
+          <t>233.93</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>331.92</t>
+          <t>340.93</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>-0.89</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>848.49</t>
+          <t>677.26</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>428.29</t>
+          <t>319.90</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,17 +1641,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>141.16</t>
+          <t>122.61</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1701,27 +1701,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>41.17</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-1.64</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>131.14</t>
+          <t>125.79</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>190.76</t>
+          <t>162.96</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1806,27 +1806,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>178.07</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1841,27 +1841,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>127.28</t>
+          <t>121.20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>99.77</t>
+          <t>96.91</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>367.02</t>
+          <t>349.74</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1946,27 +1946,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>266.92</t>
+          <t>156.06</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>115.30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1991,17 +1991,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-1.11</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,665.15</t>
+          <t>1,530.55</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>372.56</t>
+          <t>282.28</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>126.06</t>
+          <t>108.11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2121,27 +2121,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>384.73</t>
+          <t>356.03</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>40,698.12</t>
+          <t>26,796.43</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>41.11</t>
+          <t>364.65</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,023.05</t>
+          <t>4,683.25</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2201,17 +2201,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>31.23</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>41,886.84</t>
+          <t>25,232.94</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2236,17 +2236,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>445.67</t>
+          <t>581.89</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3,580.50</t>
+          <t>4,242.81</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>47.29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,656.97</t>
+          <t>20,244.21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,17 +486,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.23</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,553.04</t>
+          <t>17,688.21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.97</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,305.64</t>
+          <t>10,287.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.40</t>
+          <t>20.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,105.02</t>
+          <t>13,862.98</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>35.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,571.34</t>
+          <t>13,107.42</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.85</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -651,27 +651,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,839.81</t>
+          <t>14,540.26</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>44.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18,965.38</t>
+          <t>24,239.45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>142.92</t>
+          <t>156.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -721,27 +721,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,567.20</t>
+          <t>11,198.26</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>62.33</t>
+          <t>122.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,894.98</t>
+          <t>7,729.16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -791,27 +791,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8,954.63</t>
+          <t>10,277.48</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>61.34</t>
+          <t>16.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7,978.28</t>
+          <t>9,459.24</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>58.95</t>
+          <t>41.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,495.95</t>
+          <t>15,395.17</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>63.11</t>
+          <t>17.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -896,27 +896,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,117.37</t>
+          <t>19,658.99</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.09</t>
+          <t>144.52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -931,27 +931,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,235.66</t>
+          <t>16,679.36</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>59.22</t>
+          <t>143.93</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -966,27 +966,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,207.19</t>
+          <t>9,310.68</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>29.46</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1001,27 +1001,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>607.49</t>
+          <t>711.59</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>10.24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>820.59</t>
+          <t>932.05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,776.39</t>
+          <t>4,718.49</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1106,27 +1106,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>152.60</t>
+          <t>181.27</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,789.51</t>
+          <t>1,858.54</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1151,17 +1151,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1176,27 +1176,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>240.06</t>
+          <t>282.71</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>587.55</t>
+          <t>628.80</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>225.58</t>
+          <t>231.02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.97</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>106.61</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1316,27 +1316,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>116.12</t>
+          <t>116.13</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1351,27 +1351,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>128.98</t>
+          <t>139.71</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>71.24</t>
+          <t>65.42</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1421,27 +1421,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>63.42</t>
+          <t>68.63</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>294.87</t>
+          <t>401.50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1491,27 +1491,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>136.83</t>
+          <t>165.93</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1526,27 +1526,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>233.34</t>
+          <t>284.73</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1561,27 +1561,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>337.60</t>
+          <t>331.92</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>673.59</t>
+          <t>848.49</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,17 +1606,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>317.24</t>
+          <t>428.29</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,17 +1641,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>122.69</t>
+          <t>141.16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1676,17 +1676,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>41.17</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1736,27 +1736,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>125.24</t>
+          <t>131.14</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1771,27 +1771,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>163.24</t>
+          <t>190.76</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>170.82</t>
+          <t>178.07</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>121.64</t>
+          <t>127.28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1851,17 +1851,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>96.42</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>349.13</t>
+          <t>367.02</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1946,27 +1946,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>155.82</t>
+          <t>266.92</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1981,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>117.26</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2016,27 +2016,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,519.91</t>
+          <t>1,665.15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10.64</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2051,27 +2051,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>281.51</t>
+          <t>372.56</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>106.81</t>
+          <t>126.06</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-1.20</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>356.55</t>
+          <t>384.73</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26,514.47</t>
+          <t>40,698.12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>281.96</t>
+          <t>41.11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,707.89</t>
+          <t>4,023.05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2201,17 +2201,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24,959.47</t>
+          <t>41,886.84</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2236,17 +2236,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>273.47</t>
+          <t>445.67</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,265.80</t>
+          <t>3,580.50</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>22.99</t>
+          <t>18.75</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,732.20</t>
+          <t>16,857.60</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,17 +486,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>125.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
+          <t>285.74</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.67</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -511,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,630.01</t>
+          <t>14,728.88</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,17 +519,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.67</t>
-        </is>
+          <t>251.86</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.68</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -546,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,368.04</t>
+          <t>8,418.23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,17 +552,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.60</t>
-        </is>
+          <t>151.21</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.76</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -581,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,197.60</t>
+          <t>11,261.19</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,17 +585,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63.59</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-0.56</t>
-        </is>
+          <t>211.35</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.84</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -616,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,662.44</t>
+          <t>10,720.90</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -626,17 +618,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
+          <t>187.19</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.72</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -651,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,850.24</t>
+          <t>12,972.90</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,17 +651,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>122.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
+          <t>174.59</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.33</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -686,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19,108.30</t>
+          <t>19,312.86</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -696,17 +684,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>204.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
+          <t>417.99</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-2.12</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -721,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,629.53</t>
+          <t>9,644.65</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -731,17 +717,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
+          <t>108.57</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.11</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,911.93</t>
+          <t>5,976.36</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -766,17 +750,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>64.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-1.08</t>
-        </is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.35</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -791,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,015.97</t>
+          <t>9,072.62</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -801,17 +783,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>56.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-0.62</t>
-        </is>
+          <t>138.40</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -826,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8,037.23</t>
+          <t>8,062.73</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -836,17 +816,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
+          <t>129.90</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.59</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -861,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,559.06</t>
+          <t>12,669.78</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,17 +849,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>110.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-0.87</t>
-        </is>
+          <t>225.55</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.75</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -896,27 +872,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,203.46</t>
+          <t>17,200.35</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
+          <t>210.83</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.21</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -931,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,294.88</t>
+          <t>14,341.43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -941,17 +915,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>46.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
+          <t>177.40</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.22</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -966,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,177.73</t>
+          <t>8,265.32</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -976,17 +948,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.59</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
+          <t>133.04</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.58</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1001,27 +971,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>609.18</t>
+          <t>607.85</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>829.14</t>
+          <t>833.24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1046,17 +1014,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-0.49</t>
-        </is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1037,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,796.95</t>
+          <t>3,839.88</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1081,17 +1047,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>42.93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-1.12</t>
-        </is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.95</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>152.92</t>
+          <t>153.31</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1116,17 +1080,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.73</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1141,27 +1103,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,795.83</t>
+          <t>1,785.59</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.34</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>244.26</t>
+          <t>245.37</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1186,17 +1146,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.36</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1211,27 +1169,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>584.66</t>
+          <t>584.16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.32</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>227.79</t>
+          <t>229.14</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1256,17 +1212,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-0.59</t>
-        </is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.46</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1235,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>105.77</t>
+          <t>107.61</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1291,17 +1245,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-1.71</t>
-        </is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.47</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>115.74</t>
+          <t>116.29</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1326,17 +1278,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-0.47</t>
-        </is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.93</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>127.82</t>
+          <t>128.93</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1361,17 +1311,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.86</t>
-        </is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.57</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1334,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>71.39</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1396,17 +1344,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.26</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1367,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>62.16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1431,17 +1377,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.71</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>296.99</t>
+          <t>297.97</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1466,17 +1410,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.21</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>136.80</t>
+          <t>137.35</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1501,17 +1443,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-0.40</t>
-        </is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.93</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1466,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>233.93</t>
+          <t>235.89</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1536,17 +1476,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-0.83</t>
-        </is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-1.26</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1499,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>340.93</t>
+          <t>344.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1571,17 +1509,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.86</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1532,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>677.26</t>
+          <t>684.98</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1606,17 +1542,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-1.13</t>
-        </is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1565,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>319.90</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1641,17 +1575,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-0.97</t>
-        </is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-2.36</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1598,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>122.61</t>
+          <t>124.10</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1676,17 +1608,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-1.20</t>
-        </is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.14</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1631,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.66</t>
+          <t>34.22</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1711,17 +1641,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-1.64</t>
-        </is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-1.55</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1664,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>125.79</t>
+          <t>125.80</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1746,17 +1674,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.74</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1697,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>162.96</t>
+          <t>167.80</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1781,17 +1707,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-2.88</t>
-        </is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-1.32</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1730,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>170.00</t>
+          <t>171.70</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1816,17 +1740,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-0.99</t>
-        </is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-1.25</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1763,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>121.20</t>
+          <t>122.17</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1851,17 +1773,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.45</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1796,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>96.91</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1886,17 +1806,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-0.72</t>
-        </is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-2.22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1829,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>349.74</t>
+          <t>349.77</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1921,17 +1839,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-1.08</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1862,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>156.06</t>
+          <t>156.75</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1956,17 +1872,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-0.44</t>
-        </is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-3.14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1895,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>115.30</t>
+          <t>116.60</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.51</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2016,27 +1928,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,530.55</t>
+          <t>1,518.40</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12.15</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-1.19</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2051,27 +1961,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>282.28</t>
+          <t>276.55</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-1.34</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2086,7 +1994,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>108.11</t>
+          <t>109.24</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2096,17 +2004,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>-1.03</t>
-        </is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.04</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2027,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>356.03</t>
+          <t>357.93</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2131,17 +2037,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-0.53</t>
-        </is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.47</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2060,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26,796.43</t>
+          <t>27,161.08</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2166,17 +2070,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>364.65</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-1.34</t>
-        </is>
+          <t>945.05</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-3.36</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2093,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,683.25</t>
+          <t>4,652.02</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2201,17 +2103,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>31.23</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.68</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2126,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25,232.94</t>
+          <t>25,814.83</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2236,17 +2136,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>581.89</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-2.25</t>
-        </is>
+          <t>1,069.40</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>-3.98</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2159,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,242.81</t>
+          <t>4,195.52</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2271,17 +2169,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47.29</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.99</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,857.60</t>
+          <t>16,715.37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,15 +486,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>285.74</t>
+          <t>102.26</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,728.88</t>
+          <t>14,612.59</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,15 +519,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>251.86</t>
+          <t>92.84</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-1.68</v>
+        <v>-0.63</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,418.23</t>
+          <t>8,352.25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,15 +552,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>151.21</t>
+          <t>62.18</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-1.76</v>
+        <v>-0.74</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,261.19</t>
+          <t>11,175.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,15 +585,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>211.35</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-1.84</v>
+        <v>-0.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,720.90</t>
+          <t>10,634.91</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,15 +618,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>187.19</t>
+          <t>67.80</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-1.72</v>
+        <v>-0.63</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,972.90</t>
+          <t>12,859.12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,15 +651,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>174.59</t>
+          <t>55.50</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-1.33</v>
+        <v>-0.43</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19,312.86</t>
+          <t>19,106.21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,15 +684,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>417.99</t>
+          <t>189.70</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-2.12</v>
+        <v>-0.98</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,644.65</t>
+          <t>9,573.57</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,15 +717,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>108.57</t>
+          <t>45.12</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-1.11</v>
+        <v>-0.47</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,976.36</t>
+          <t>5,956.98</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,15 +750,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-1.35</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,072.62</t>
+          <t>8,986.04</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,15 +783,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>138.40</t>
+          <t>39.43</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-1.5</v>
+        <v>-0.44</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8,062.73</t>
+          <t>8,026.45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,15 +816,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>129.90</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-1.59</v>
+        <v>-0.31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,669.78</t>
+          <t>12,546.69</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,15 +849,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>225.55</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-1.75</v>
+        <v>-0.73</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,200.35</t>
+          <t>17,155.32</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,15 +882,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>210.83</t>
+          <t>67.08</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.21</v>
+        <v>-0.39</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,341.43</t>
+          <t>14,254.03</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,15 +915,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>177.40</t>
+          <t>83.74</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1.22</v>
+        <v>-0.58</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,265.32</t>
+          <t>8,203.27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,15 +948,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>133.04</t>
+          <t>23.99</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-1.58</v>
+        <v>-0.29</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -971,25 +971,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>607.85</t>
+          <t>614.15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>833.24</t>
+          <t>821.78</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,15 +1014,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-1.5</v>
+        <v>-0.51</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,839.88</t>
+          <t>3,795.89</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1047,15 +1047,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>76.27</t>
+          <t>29.62</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-1.95</v>
+        <v>-0.77</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1070,25 +1070,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>153.31</t>
+          <t>154.59</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-0.73</v>
+        <v>0.18</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,785.59</t>
+          <t>1,802.18</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1113,15 +1113,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.27</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-1.34</v>
+        <v>-0.29</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>245.37</t>
+          <t>239.87</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1146,15 +1146,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-1.36</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>584.16</t>
+          <t>585.85</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1179,15 +1179,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-0.32</v>
+        <v>-0.72</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>229.14</t>
+          <t>226.08</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1212,15 +1212,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-0.46</v>
+        <v>-0.55</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>107.61</t>
+          <t>106.01</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-1.47</v>
+        <v>0.49</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>116.29</t>
+          <t>116.67</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1278,15 +1278,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-1.93</v>
+        <v>-0.39</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>128.93</t>
+          <t>128.38</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1311,15 +1311,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-1.57</v>
+        <v>-0.85</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1334,25 +1334,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>72.20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-2.26</v>
+        <v>0.03</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1367,25 +1367,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>62.16</t>
+          <t>63.45</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.71</v>
+        <v>-0.19</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>297.97</t>
+          <t>293.41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1410,15 +1410,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-2.21</v>
+        <v>-0.49</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>137.35</t>
+          <t>136.54</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1443,15 +1443,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-0.93</v>
+        <v>-0.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>235.89</t>
+          <t>234.96</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1476,15 +1476,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-1.26</v>
+        <v>-0.44</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>344.00</t>
+          <t>337.29</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1509,15 +1509,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-0.86</v>
+        <v>-0.18</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>684.98</t>
+          <t>677.18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1542,15 +1542,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13.90</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-1.99</v>
+        <v>-0.79</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>319.67</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1575,15 +1575,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-2.36</v>
+        <v>-1.26</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1598,25 +1598,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>124.10</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>-1.14</v>
-      </c>
+          <t>123.67</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1621,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>34.22</t>
+          <t>33.46</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1641,15 +1631,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-1.55</v>
+        <v>-0.27</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1664,25 +1654,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>125.80</t>
+          <t>126.00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-0.74</v>
+        <v>0.26</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1687,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>167.80</t>
+          <t>162.90</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1707,15 +1697,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-1.32</v>
+        <v>-0.06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1720,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>171.70</t>
+          <t>170.78</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1740,15 +1730,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-1.25</v>
+        <v>-0.52</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1763,25 +1753,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>122.17</t>
+          <t>123.32</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-1.45</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1786,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>96.52</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1806,15 +1796,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-2.22</v>
+        <v>-0.17</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1819,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>349.77</t>
+          <t>349.61</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1839,15 +1829,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-1.08</v>
+        <v>-0.39</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1852,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>156.75</t>
+          <t>157.55</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1872,15 +1862,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-3.14</v>
+        <v>-0.86</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1895,25 +1885,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>116.60</t>
+          <t>116.45</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.51</v>
+        <v>-0.83</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1928,25 +1918,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,518.40</t>
+          <t>1,526.47</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>-1.19</v>
+        <v>0.05</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1951,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>276.55</t>
+          <t>280.58</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1971,15 +1961,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-1.34</v>
+        <v>-0.9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1984,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>109.24</t>
+          <t>106.59</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2004,15 +1994,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-1.04</v>
+        <v>-0.46</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2017,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>357.93</t>
+          <t>355.66</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2037,15 +2027,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-0.47</v>
+        <v>-1.17</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2050,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27,161.08</t>
+          <t>26,727.95</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2070,15 +2060,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>945.05</t>
+          <t>341.80</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-3.36</v>
+        <v>-1.26</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2083,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,652.02</t>
+          <t>4,688.00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2103,15 +2093,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>76.92</t>
+          <t>29.41</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.68</v>
+        <v>0.63</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2116,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25,814.83</t>
+          <t>25,220.24</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2136,15 +2126,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1,069.40</t>
+          <t>406.21</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>-3.98</v>
+        <v>-1.59</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2149,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,195.52</t>
+          <t>4,242.16</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2169,15 +2159,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>81.82</t>
+          <t>33.36</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.99</v>
+        <v>0.79</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,715.37</t>
+          <t>16,612.95</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>102.26</t>
+          <t>102.42</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,7 +494,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,612.59</t>
+          <t>14,522.96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,15 +519,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>89.63</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.63</v>
+        <v>-0.61</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,352.25</t>
+          <t>8,293.37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,15 +552,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.18</t>
+          <t>58.88</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.74</v>
+        <v>-0.7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,175.49</t>
+          <t>11,092.49</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,15 +585,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.8</v>
+        <v>-0.74</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,634.91</t>
+          <t>10,555.73</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -618,15 +618,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67.80</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.63</v>
+        <v>-0.74</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,859.12</t>
+          <t>12,772.14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,15 +651,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55.50</t>
+          <t>86.98</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.43</v>
+        <v>-0.68</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19,106.21</t>
+          <t>18,966.42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,15 +684,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>189.70</t>
+          <t>139.79</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.98</v>
+        <v>-0.73</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,573.57</t>
+          <t>9,510.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -717,15 +717,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>45.12</t>
+          <t>63.57</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.47</v>
+        <v>-0.66</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,956.98</t>
+          <t>5,947.38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -750,15 +750,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8,986.04</t>
+          <t>8,912.93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,15 +783,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>39.43</t>
+          <t>73.11</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.44</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8,026.45</t>
+          <t>7,980.33</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -816,15 +816,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.31</v>
+        <v>-0.57</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,546.69</t>
+          <t>12,472.38</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -849,15 +849,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>74.31</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.73</v>
+        <v>-0.59</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,155.32</t>
+          <t>17,081.46</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -882,15 +882,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67.08</t>
+          <t>73.86</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.39</v>
+        <v>-0.43</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,254.03</t>
+          <t>14,213.75</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,15 +915,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.74</t>
+          <t>40.28</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.58</v>
+        <v>-0.28</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,203.27</t>
+          <t>8,194.96</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -948,15 +948,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>23.99</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-0.29</v>
+        <v>-0.1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -971,25 +971,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>614.15</t>
+          <t>612.28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.12</v>
+        <v>-0.3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>821.78</t>
+          <t>819.16</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1014,15 +1014,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-0.51</v>
+        <v>-0.32</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,795.89</t>
+          <t>3,769.01</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1047,15 +1047,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>26.88</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-0.77</v>
+        <v>-0.71</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1070,25 +1070,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>154.59</t>
+          <t>154.16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.18</v>
+        <v>-0.28</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,802.18</t>
+          <t>1,797.84</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1113,15 +1113,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.29</v>
+        <v>-0.24</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>239.87</t>
+          <t>238.46</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1146,15 +1146,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.59</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>585.85</t>
+          <t>576.81</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1179,15 +1179,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-0.72</v>
+        <v>-1.54</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1202,25 +1202,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>226.08</t>
+          <t>226.09</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.55</v>
-      </c>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1233,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>106.01</t>
+          <t>106.26</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1245,15 +1243,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1268,25 +1266,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>116.67</t>
+          <t>117.31</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-0.39</v>
+        <v>0.55</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1299,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>128.38</t>
+          <t>128.21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1311,15 +1309,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-0.85</v>
+        <v>-0.13</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1332,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>72.20</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1344,15 +1342,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03</v>
+        <v>1.18</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1365,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>63.45</t>
+          <t>63.16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1377,15 +1375,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-0.19</v>
+        <v>-0.46</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1400,25 +1398,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>293.41</t>
+          <t>295.71</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-0.49</v>
+        <v>0.78</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1433,25 +1431,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>136.54</t>
+          <t>139.19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-0.5</v>
+        <v>1.94</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1464,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>234.96</t>
+          <t>232.54</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1476,15 +1474,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-0.44</v>
+        <v>-1.03</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1497,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>337.29</t>
+          <t>332.54</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1509,15 +1507,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-0.18</v>
+        <v>-1.41</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1532,7 +1530,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>677.18</t>
+          <t>672.21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1542,15 +1540,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-0.79</v>
+        <v>-0.73</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1563,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>319.67</t>
+          <t>317.59</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1575,15 +1573,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-1.26</v>
+        <v>-0.65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1598,15 +1596,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>123.67</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+          <t>123.24</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.35</v>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1629,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1631,15 +1639,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-0.27</v>
+        <v>-0.63</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1654,25 +1662,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>126.00</t>
+          <t>124.67</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.26</v>
+        <v>-1.06</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1695,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>162.90</t>
+          <t>160.75</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1697,15 +1705,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-0.06</v>
+        <v>-1.32</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1728,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>170.78</t>
+          <t>169.90</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1730,7 +1738,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1738,7 +1746,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1753,25 +1761,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>123.32</t>
+          <t>122.46</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>-0.7</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1794,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>96.52</t>
+          <t>95.69</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1796,15 +1804,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-0.17</v>
+        <v>-0.86</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1827,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>349.61</t>
+          <t>348.94</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1829,15 +1837,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-0.39</v>
+        <v>-0.19</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1852,25 +1860,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>157.55</t>
+          <t>158.40</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-0.86</v>
+        <v>0.54</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1893,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>116.45</t>
+          <t>115.75</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1895,15 +1903,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-0.83</v>
+        <v>-0.6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1918,25 +1926,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,526.47</t>
+          <t>1,514.80</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.05</v>
+        <v>-0.76</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1959,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>280.58</t>
+          <t>278.18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1961,15 +1969,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-0.9</v>
+        <v>-0.86</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1992,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>106.59</t>
+          <t>106.51</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1994,15 +2002,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-0.46</v>
+        <v>-0.08</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2025,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>355.66</t>
+          <t>351.12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2027,15 +2035,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-1.17</v>
+        <v>-1.28</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2050,7 +2058,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26,727.95</t>
+          <t>26,400.06</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2060,15 +2068,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>341.80</t>
+          <t>327.89</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-1.26</v>
+        <v>-1.23</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2091,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,688.00</t>
+          <t>4,716.76</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2093,15 +2101,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>29.41</t>
+          <t>28.76</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2124,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25,220.24</t>
+          <t>24,850.04</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2126,15 +2134,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>406.21</t>
+          <t>370.20</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>-1.59</v>
+        <v>-1.47</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2157,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,242.16</t>
+          <t>4,273.29</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2159,15 +2167,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>33.36</t>
+          <t>31.13</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -489,9 +489,7 @@
           <t>102.42</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -522,9 +520,7 @@
           <t>89.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -555,9 +551,7 @@
           <t>58.88</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -588,9 +582,7 @@
           <t>83.00</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>-0.74</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -621,9 +613,7 @@
           <t>79.18</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>-0.74</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -654,9 +644,7 @@
           <t>86.98</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>-0.68</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -687,9 +675,7 @@
           <t>139.79</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>-0.73</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -720,9 +706,7 @@
           <t>63.57</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>-0.66</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -753,9 +737,7 @@
           <t>9.60</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>-0.16</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -786,9 +768,7 @@
           <t>73.11</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -819,9 +799,7 @@
           <t>46.12</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>-0.57</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -852,9 +830,7 @@
           <t>74.31</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -885,9 +861,7 @@
           <t>73.86</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>-0.43</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -918,9 +892,7 @@
           <t>40.28</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -951,9 +923,7 @@
           <t>8.31</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>-0.1</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -984,9 +954,7 @@
           <t>1.87</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>-0.3</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1017,9 +985,7 @@
           <t>2.62</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>-0.32</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1050,9 +1016,7 @@
           <t>26.88</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>-0.71</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1083,9 +1047,7 @@
           <t>0.43</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1116,9 +1078,7 @@
           <t>4.34</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>-0.24</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1149,9 +1109,7 @@
           <t>1.41</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1182,9 +1140,7 @@
           <t>9.04</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>-1.54</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1312,9 +1268,7 @@
           <t>0.17</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>-0.13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1378,9 +1332,7 @@
           <t>0.29</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>-0.46</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1477,9 +1429,7 @@
           <t>2.42</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>-1.03</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1510,9 +1460,7 @@
           <t>4.75</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>-1.41</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1543,9 +1491,7 @@
           <t>4.97</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>-0.73</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1576,9 +1522,7 @@
           <t>2.08</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1609,9 +1553,7 @@
           <t>0.43</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>-0.35</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1642,9 +1584,7 @@
           <t>0.21</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>-0.63</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1675,9 +1615,7 @@
           <t>1.33</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>-1.06</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1708,9 +1646,7 @@
           <t>2.15</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>-1.32</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1741,9 +1677,7 @@
           <t>0.88</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>-0.52</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1774,9 +1708,7 @@
           <t>0.86</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1807,9 +1739,7 @@
           <t>0.83</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>-0.86</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1840,9 +1770,7 @@
           <t>0.67</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>-0.19</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1906,9 +1834,7 @@
           <t>0.70</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>-0.6</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1939,9 +1865,7 @@
           <t>11.67</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1972,9 +1896,7 @@
           <t>2.40</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>-0.86</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2005,9 +1927,7 @@
           <t>0.08</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>-0.08</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2038,9 +1958,7 @@
           <t>4.54</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>-1.28</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2071,9 +1989,7 @@
           <t>327.89</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>-1.23</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2137,9 +2053,7 @@
           <t>370.20</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>-1.47</v>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,23 +476,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,612.95</t>
+          <t>16,863.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>102.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>250.39</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.51</v>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -507,23 +509,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,522.96</t>
+          <t>14,739.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>216.40</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.49</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -538,23 +542,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,293.37</t>
+          <t>8,417.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>124.07</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.5</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -569,23 +575,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,092.49</t>
+          <t>11,271.36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>178.87</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.61</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -600,23 +608,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,555.73</t>
+          <t>10,716.29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>160.56</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.52</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -631,23 +641,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,772.14</t>
+          <t>12,984.10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>211.96</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.66</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -662,23 +674,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18,966.42</t>
+          <t>19,328.54</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>139.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>362.12</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.91</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -693,23 +707,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,510.00</t>
+          <t>9,621.79</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>63.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>111.79</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.18</v>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -724,23 +740,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,947.38</t>
+          <t>6,002.28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>54.90</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.92</v>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -755,23 +773,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8,912.93</t>
+          <t>9,021.84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>108.91</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.22</v>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -786,23 +806,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7,980.33</t>
+          <t>8,071.76</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>46.12</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.15</v>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -817,23 +839,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,472.38</t>
+          <t>12,669.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74.31</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>196.82</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.58</v>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -848,23 +872,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,081.46</t>
+          <t>17,251.07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>169.61</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.99</v>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -879,23 +905,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,213.75</t>
+          <t>14,363.25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40.28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>149.50</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.05</v>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -910,23 +938,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,194.96</t>
+          <t>8,282.99</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.07</v>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -941,23 +971,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>612.28</t>
+          <t>613.17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.15</v>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -972,23 +1004,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>819.16</t>
+          <t>827.80</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.05</v>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1003,23 +1037,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,769.01</t>
+          <t>3,837.06</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.81</v>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1070,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>154.16</t>
+          <t>153.73</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1050,7 +1086,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1065,23 +1101,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,797.84</t>
+          <t>1,810.75</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.72</v>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,23 +1134,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>238.46</t>
+          <t>241.73</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.37</v>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1127,23 +1167,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>576.81</t>
+          <t>582.31</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.95</v>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1200,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>226.09</t>
+          <t>229.48</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1168,13 +1210,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.5</v>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1233,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>106.26</t>
+          <t>107.22</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1199,15 +1243,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1266,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>117.31</t>
+          <t>117.72</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1232,15 +1276,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1255,23 +1299,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>128.21</t>
+          <t>129.24</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8</v>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1286,25 +1332,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>73.05</t>
+          <t>73.00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.18</v>
-      </c>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1319,23 +1363,25 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>63.16</t>
+          <t>64.62</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.31</v>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1396,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>295.71</t>
+          <t>296.00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1360,15 +1406,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.78</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1383,25 +1429,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>139.19</t>
+          <t>138.94</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.94</v>
-      </c>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1416,23 +1460,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>232.54</t>
+          <t>234.88</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.01</v>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1447,23 +1493,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>332.54</t>
+          <t>343.81</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3.39</v>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1478,23 +1526,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>672.21</t>
+          <t>684.45</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.82</v>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1509,23 +1559,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>317.59</t>
+          <t>323.91</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.99</v>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1540,23 +1592,25 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>123.24</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2.09</v>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1571,23 +1625,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.95</v>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1602,23 +1658,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>124.67</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.92</v>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1633,23 +1691,25 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>160.75</t>
+          <t>163.25</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.56</v>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1664,23 +1724,25 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>169.90</t>
+          <t>170.98</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.64</v>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1695,23 +1757,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>122.46</t>
+          <t>122.83</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3</v>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1726,23 +1790,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>95.69</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.56</v>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1757,23 +1823,25 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>348.94</t>
+          <t>350.38</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.41</v>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1788,25 +1856,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>158.40</t>
+          <t>157.77</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.54</v>
-      </c>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1821,23 +1887,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>115.75</t>
+          <t>116.98</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.06</v>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1852,23 +1920,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,514.80</t>
+          <t>1,527.82</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.86</v>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1883,23 +1953,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>278.18</t>
+          <t>283.34</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.85</v>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1914,23 +1986,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>106.51</t>
+          <t>108.70</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.06</v>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1945,23 +2019,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>351.12</t>
+          <t>357.01</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.68</v>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1976,23 +2052,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26,400.06</t>
+          <t>27,186.81</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>327.89</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>786.75</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2.98</v>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2007,25 +2085,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,716.76</t>
+          <t>4,646.48</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>28.76</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>0.61</v>
-      </c>
+          <t>70.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2040,23 +2116,25 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>24,850.04</t>
+          <t>25,755.01</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>370.20</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>904.97</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3.64</v>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2071,25 +2149,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,273.29</t>
+          <t>4,195.48</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>31.13</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.73</v>
-      </c>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>

--- a/專題/0.xlsx
+++ b/專題/0.xlsx
@@ -476,25 +476,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16,863.34</t>
+          <t>16,323.63</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>250.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.51</v>
-      </c>
+          <t>183.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -509,25 +507,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14,739.36</t>
+          <t>14,271.63</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>216.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.49</v>
-      </c>
+          <t>171.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -542,25 +538,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8,417.44</t>
+          <t>8,138.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>124.07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.5</v>
-      </c>
+          <t>122.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -575,25 +569,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11,271.36</t>
+          <t>10,839.24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>178.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.61</v>
-      </c>
+          <t>185.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -608,25 +600,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,716.29</t>
+          <t>10,354.03</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>160.56</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.52</v>
-      </c>
+          <t>141.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -641,25 +631,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12,984.10</t>
+          <t>12,646.51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>211.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.66</v>
-      </c>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -674,25 +662,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19,328.54</t>
+          <t>18,365.42</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>362.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.91</v>
-      </c>
+          <t>354.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -707,25 +693,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9,621.79</t>
+          <t>9,573.43</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>111.79</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.18</v>
-      </c>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -740,25 +724,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6,002.28</t>
+          <t>5,999.35</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>54.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0.92</v>
-      </c>
+          <t>58.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -773,25 +755,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,021.84</t>
+          <t>8,766.58</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>108.91</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.22</v>
-      </c>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -806,25 +786,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8,071.76</t>
+          <t>7,924.16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.15</v>
-      </c>
+          <t>58.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -839,25 +817,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12,669.20</t>
+          <t>12,243.83</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>196.82</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.58</v>
-      </c>
+          <t>158.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -872,25 +848,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17,251.07</t>
+          <t>17,089.78</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>169.61</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.99</v>
-      </c>
+          <t>103.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -905,25 +879,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14,363.25</t>
+          <t>14,286.46</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>149.50</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1.05</v>
-      </c>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -938,25 +910,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8,282.99</t>
+          <t>8,082.54</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1.07</v>
-      </c>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -971,25 +941,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>613.17</t>
+          <t>604.07</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.15</v>
-      </c>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1004,25 +972,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>827.80</t>
+          <t>807.38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.05</v>
-      </c>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1037,25 +1003,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,837.06</t>
+          <t>3,660.66</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68.05</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1.81</v>
-      </c>
+          <t>57.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>153.73</t>
+          <t>155.29</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1080,13 +1044,13 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1065,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1,810.75</t>
+          <t>1,793.60</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1111,15 +1075,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1134,25 +1098,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>241.73</t>
+          <t>235.68</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.37</v>
-      </c>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1167,25 +1129,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>582.31</t>
+          <t>582.52</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.95</v>
-      </c>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1200,25 +1160,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>229.48</t>
+          <t>222.10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.5</v>
-      </c>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1233,25 +1191,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>107.22</t>
+          <t>104.81</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9</v>
-      </c>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1266,25 +1222,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>117.72</t>
+          <t>114.73</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0.35</v>
-      </c>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1299,25 +1253,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>129.24</t>
+          <t>125.50</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.8</v>
-      </c>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1332,23 +1284,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>71.39</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.04</v>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1317,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>64.62</t>
+          <t>55.66</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1373,15 +1327,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.31</v>
+        <v>0.27</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1396,25 +1350,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>296.00</t>
+          <t>290.06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.1</v>
-      </c>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1381,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>138.94</t>
+          <t>144.20</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1439,13 +1391,13 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1460,25 +1412,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>234.88</t>
+          <t>230.10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.01</v>
-      </c>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1493,25 +1443,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>343.81</t>
+          <t>319.48</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3.39</v>
-      </c>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1526,25 +1474,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>684.45</t>
+          <t>652.59</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1.82</v>
-      </c>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1559,25 +1505,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>323.91</t>
+          <t>305.84</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.99</v>
-      </c>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1592,25 +1536,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.33</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2.09</v>
-      </c>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1625,25 +1567,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1.95</v>
-      </c>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1658,25 +1590,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.97</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.92</v>
-      </c>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1691,25 +1621,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>163.25</t>
+          <t>153.57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.56</v>
-      </c>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1724,25 +1652,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>170.98</t>
+          <t>170.94</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0.64</v>
-      </c>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1757,25 +1683,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>122.83</t>
+          <t>121.94</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.3</v>
-      </c>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1790,25 +1714,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>97.18</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1.56</v>
-      </c>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1823,25 +1745,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>350.38</t>
+          <t>346.07</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.41</v>
-      </c>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1776,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>157.77</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1866,13 +1786,13 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1807,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>116.98</t>
+          <t>115.34</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1897,15 +1817,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1920,25 +1840,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1,527.82</t>
+          <t>1,499.65</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13.02</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.86</v>
-      </c>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1953,25 +1871,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>283.34</t>
+          <t>278.53</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>1.85</v>
-      </c>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1986,25 +1902,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>108.70</t>
+          <t>105.43</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>2.06</v>
-      </c>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2019,25 +1933,23 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>357.01</t>
+          <t>358.50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1.68</v>
-      </c>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2052,25 +1964,23 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>27,186.81</t>
+          <t>25,464.21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>786.75</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>2.98</v>
-      </c>
+          <t>618.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2085,23 +1995,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4,646.48</t>
+          <t>4,794.22</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>70.28</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.19</v>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2116,25 +2028,23 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>25,755.01</t>
+          <t>23,382.81</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>904.97</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>3.64</v>
-      </c>
+          <t>765.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2149,23 +2059,25 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>4,195.48</t>
+          <t>4,394.75</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>77.81</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.59</v>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
